--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="10"/>
@@ -705,12 +705,6 @@
     <t>Rita Narro, Fernando Gastañaudi</t>
   </si>
   <si>
-    <t xml:space="preserve">_Desde Administrar Lote, se deberá validar que el estado del Lote sí puede cambiarse manualmente de estado “No Conforme” a “Conforme”, pese a que se tiene al menos un ensayo no conforme. Por favor confirmar esto, caso contrario, explicar cómo harán para cambiar el estado de un Lote, de “no Conforme” a “Conforme”.
--Desde Administrar Lote, se deberá validar que el estado del lote NO debe pasar manualmente de estado Registrado a Conforme, cuando no existan ensayos registrados aún.
--Desde Administrar Lote, se deberá validar que el estado del lote no debe pasar manualmente de estado Registrado a No Conforme, cuando no existan ensayos registrados aún.
-</t>
-  </si>
-  <si>
     <t>_Desde Administrar Lote, se deberá validar que el estado del Lote no debe pasar manualmente de estado Registrado a En Espera, cuando no existan ensayos registrados aún.
 -Desde Administrar Lote, se deberá validar que el estado del Lote no debe pasar manualmente de estado Conforme a Registrado, cuando se tienen ensayos.
 -Desde Administrar Lote, se deberá validar que el estado del Lote no debe pasar manualmente de estado no Conforme a Registrado, cuando se tienen ensayos.
@@ -722,6 +716,12 @@
   <si>
     <t xml:space="preserve">_Desde Administrar Lote, se permitirá que el estado del Lote pase manualmente de estado Conforme a En Espera. En este caso puede ser que si se tenga que pasar cuando por un error se haya registrado un dato conforme, a edades tempranas, luego de corregir el dato debe pasar al estado en espera.
 _Desde Administrar Lote, se permitirá que el estado del Lote pase manualmente de estado No Conforme a En Espera.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Desde Administrar Lote, se deberá validar que el estado del Lote sí puede cambiarse manualmente de estado “No Conforme” a “Conforme”, pese a que se tiene al menos un ensayo no conforme. _El cambio de No Conforme a Conforme siempre se ha hecho desde administrar lote, tener en cuenta que un lote no conforme con el tiempo puede llegar a ser conforme lo cual se comprueba mediante reensayos.
+-Desde Administrar Lote, se deberá validar que el estado del lote NO debe pasar manualmente de estado Registrado a Conforme, cuando no existan ensayos registrados aún.
+-Desde Administrar Lote, se deberá validar que el estado del lote no debe pasar manualmente de estado Registrado a No Conforme, cuando no existan ensayos registrados aún.
 </t>
   </si>
 </sst>
@@ -1028,6 +1028,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1037,12 +1073,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1051,36 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1529,101 +1529,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1633,24 +1633,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1659,64 +1659,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1"/>
     <row r="21" spans="1:6" ht="15" customHeight="1"/>
@@ -1776,16 +1776,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B6:F6"/>
@@ -1793,6 +1783,16 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1821,101 +1821,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -1925,22 +1925,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -1949,26 +1949,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="56" t="s">
@@ -2012,32 +2012,32 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
@@ -2083,11 +2083,11 @@
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="53" t="s">
         <v>110</v>
       </c>
@@ -2194,6 +2194,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A29:C29"/>
@@ -2210,6 +2234,317 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+    </row>
+    <row r="17" spans="1:6" ht="135" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" ht="69" customHeight="1">
+      <c r="A19" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -2228,323 +2563,6 @@
     <mergeCell ref="D16:F17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:6" ht="135" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:C24"/>
@@ -2555,24 +2573,6 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2597,101 +2597,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2701,22 +2701,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2725,82 +2725,82 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" ht="56.25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6"/>
@@ -2844,6 +2844,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -2856,13 +2863,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2887,101 +2887,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2991,22 +2991,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3015,64 +3015,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -3109,11 +3109,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3126,6 +3121,11 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3150,101 +3150,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3254,22 +3254,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3278,64 +3278,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -3359,6 +3359,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3371,11 +3376,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3400,101 +3400,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3504,22 +3504,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3528,26 +3528,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
       <c r="A16" s="54" t="s">
@@ -3587,32 +3587,32 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
@@ -3729,14 +3729,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -3751,18 +3755,14 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3787,101 +3787,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3891,22 +3891,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3915,26 +3915,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -3950,32 +3950,32 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
@@ -4036,12 +4036,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C16"/>
@@ -4052,12 +4052,12 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4082,101 +4082,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4186,22 +4186,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4210,26 +4210,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -4305,32 +4305,32 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
@@ -4419,30 +4419,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4455,6 +4431,30 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4479,101 +4479,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4583,22 +4583,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4607,26 +4607,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -4650,32 +4650,32 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
@@ -4709,11 +4709,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="53" t="s">
         <v>88</v>
       </c>
@@ -4807,24 +4807,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:C21"/>
@@ -4841,6 +4823,24 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4865,101 +4865,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4969,22 +4969,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4993,26 +4993,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -5060,32 +5060,32 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
@@ -5117,11 +5117,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="53" t="s">
         <v>88</v>
       </c>
@@ -5196,6 +5196,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A16:C17"/>
@@ -5212,24 +5230,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="15feb" sheetId="10" r:id="rId9"/>
     <sheet name="21feb" sheetId="11" r:id="rId10"/>
     <sheet name="24abr" sheetId="12" r:id="rId11"/>
+    <sheet name="02may" sheetId="13" r:id="rId12"/>
+    <sheet name="03may" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="134">
   <si>
     <t>Acta de reunion:</t>
   </si>
@@ -723,6 +725,58 @@
 -Desde Administrar Lote, se deberá validar que el estado del lote NO debe pasar manualmente de estado Registrado a Conforme, cuando no existan ensayos registrados aún.
 -Desde Administrar Lote, se deberá validar que el estado del lote no debe pasar manualmente de estado Registrado a No Conforme, cuando no existan ensayos registrados aún.
 </t>
+  </si>
+  <si>
+    <t>02/05/12</t>
+  </si>
+  <si>
+    <t>Respuesta a las consultas de Gráfico de Tendencia de Reporte Específico Consolidado y Control diario</t>
+  </si>
+  <si>
+    <t>Edwin Pacheco</t>
+  </si>
+  <si>
+    <t>John Vara</t>
+  </si>
+  <si>
+    <t>_Acerca del promedio ponderado:
+-El combo de selección de grupos, aparecerá en la ventana emergente de consulta de ensayo en función del tiempo.
+-La agrupación de los valores de los ensayos se hará tomando en cuenta el rango de fechas seleccionado en el criterio de búsqueda. Para este caso, no se agrupará por día.</t>
+  </si>
+  <si>
+    <t>Edwin Pacheco - John Vara</t>
+  </si>
+  <si>
+    <t>03/05/12</t>
+  </si>
+  <si>
+    <t>John Vara, Sandra Barboza</t>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Para la generación del reporte de Gráfico de Tendencia de Reporte Específico Consolidado y Control Diario, se consultó lo siguiente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Cuando se quiera generar el reporte y no se tenga el tamaño del lote, se debe autocompletar con 1?
+-El usuario respondió que no debe autocompletarse con 1, y que se debe solicitar al usuario que complete el tamaño del lote.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -934,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1082,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,9 +1145,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1054,33 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1529,101 +1601,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1633,24 +1705,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1659,64 +1731,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1"/>
     <row r="21" spans="1:6" ht="15" customHeight="1"/>
@@ -1776,6 +1848,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B6:F6"/>
@@ -1783,16 +1865,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1821,101 +1893,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -1925,22 +1997,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -1949,199 +2021,199 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="80.25" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
@@ -2194,6 +2266,361 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" ht="147" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="1:6" ht="69" customHeight="1">
+      <c r="A19" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:D20"/>
@@ -2218,34 +2645,18 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F17"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2258,101 +2669,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="B8" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2362,22 +2773,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2386,165 +2797,153 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="1:6" ht="135" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
+      <c r="A16" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" ht="61.5" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="32" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="37"/>
+    </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -2563,16 +2962,339 @@
     <mergeCell ref="D16:F17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2597,101 +3319,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2701,22 +3423,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2725,82 +3447,82 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="56.25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6"/>
@@ -2844,13 +3566,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -2863,6 +3578,13 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2887,101 +3609,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2991,22 +3713,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3015,64 +3737,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -3109,6 +3831,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3121,11 +3848,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3150,101 +3872,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3254,22 +3976,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3278,64 +4000,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -3359,11 +4081,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3376,6 +4093,11 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3400,101 +4122,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3504,22 +4226,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3528,161 +4250,161 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="19" t="s">
         <v>67</v>
       </c>
@@ -3729,18 +4451,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -3755,14 +4473,18 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3787,101 +4509,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3891,22 +4613,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3915,81 +4637,81 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -4036,12 +4758,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C16"/>
@@ -4052,12 +4774,12 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4082,101 +4804,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4186,22 +4908,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4210,169 +4932,169 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="55" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" ht="149.25" customHeight="1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="55" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" ht="117" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
@@ -4419,6 +5141,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4431,30 +5177,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4479,101 +5201,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4583,22 +5305,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4607,159 +5329,159 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="53" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="23" t="s">
         <v>82</v>
       </c>
@@ -4807,6 +5529,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:C21"/>
@@ -4823,24 +5563,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4865,101 +5587,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4969,22 +5691,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4993,165 +5715,165 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="111" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" ht="81.75" customHeight="1">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="25"/>
     </row>
     <row r="30" spans="1:6">
@@ -5196,24 +5918,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A16:C17"/>
@@ -5230,6 +5934,24 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="24abr" sheetId="12" r:id="rId11"/>
     <sheet name="02may" sheetId="13" r:id="rId12"/>
     <sheet name="03may" sheetId="14" r:id="rId13"/>
+    <sheet name="03may_2" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="137">
   <si>
     <t>Acta de reunion:</t>
   </si>
@@ -776,6 +777,35 @@
       <t xml:space="preserve">
 -Cuando se quiera generar el reporte y no se tenga el tamaño del lote, se debe autocompletar con 1?
 -El usuario respondió que no debe autocompletarse con 1, y que se debe solicitar al usuario que complete el tamaño del lote.</t>
+    </r>
+  </si>
+  <si>
+    <t>Respuesta a las consultas de Re-Configurar Formatos de Granulometría</t>
+  </si>
+  <si>
+    <t>Sandra Barboza, Sergio Mondragón</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Se hicieron consultas del requerimiento Re-Configurar Formatos de Granulometría:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-La formula peso retenido / peso inicial x 100 o (peso retenido / peso inicial) x 100, significan lo mismo para el usuario, esta formula debe obtener el mismo resultado, para el peso retenido parcial.
+-El peso inicial es la masa total que se ensaya, lo que se hace en el proceso es separar el retenido de esta masa total en cada tamiz. generalmente el peso inicial es igual a la sumatoria de los pesos retenidos +/- 0.3%</t>
     </r>
   </si>
 </sst>
@@ -988,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,6 +1130,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1109,12 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1123,36 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1601,101 +1640,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1705,24 +1744,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1731,64 +1770,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1"/>
     <row r="21" spans="1:6" ht="15" customHeight="1"/>
@@ -1848,16 +1887,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B6:F6"/>
@@ -1865,6 +1894,16 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1893,101 +1932,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -1997,22 +2036,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2021,199 +2060,199 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
     </row>
     <row r="17" spans="1:6" ht="80.25" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="78"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="59"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="59"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
@@ -2266,361 +2305,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-    </row>
-    <row r="17" spans="1:6" ht="147" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:D20"/>
@@ -2645,6 +2329,361 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:6" ht="147" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="1:6" ht="69" customHeight="1">
+      <c r="A19" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2669,101 +2708,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2773,22 +2812,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2797,101 +2836,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6">
@@ -2925,6 +2964,331 @@
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
       <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -2962,26 +3326,26 @@
     <mergeCell ref="D16:F17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2994,101 +3358,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3098,22 +3462,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3122,102 +3486,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="A16" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-    </row>
-    <row r="17" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -3229,7 +3593,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -3249,7 +3613,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="40"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -3319,101 +3683,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3423,22 +3787,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3447,82 +3811,82 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="56.25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6"/>
@@ -3566,6 +3930,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3578,13 +3949,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3609,101 +3973,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3713,22 +4077,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3737,64 +4101,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -3831,11 +4195,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3848,6 +4207,11 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3872,101 +4236,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3976,22 +4340,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4000,64 +4364,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -4081,6 +4445,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4093,11 +4462,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4122,101 +4486,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4226,22 +4590,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4250,161 +4614,161 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="19" t="s">
         <v>67</v>
       </c>
@@ -4451,14 +4815,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -4473,18 +4841,14 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4509,101 +4873,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4613,22 +4977,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4637,81 +5001,81 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="61" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="59"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -4758,12 +5122,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C16"/>
@@ -4774,12 +5138,12 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4804,101 +5168,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4908,22 +5272,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4932,169 +5296,169 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="61" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="61" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="149.25" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="61" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6" ht="117" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="61" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
@@ -5141,30 +5505,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -5177,6 +5517,30 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5201,101 +5565,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5305,22 +5669,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5329,159 +5693,159 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="61" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="45"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="23" t="s">
         <v>82</v>
       </c>
@@ -5529,24 +5893,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:C21"/>
@@ -5563,6 +5909,24 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5587,101 +5951,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5691,22 +6055,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5715,165 +6079,165 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:6" ht="111" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="61" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="81.75" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="25"/>
     </row>
     <row r="30" spans="1:6">
@@ -5918,6 +6282,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A16:C17"/>
@@ -5934,24 +6316,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="02may" sheetId="13" r:id="rId12"/>
     <sheet name="03may" sheetId="14" r:id="rId13"/>
     <sheet name="03may_2" sheetId="15" r:id="rId14"/>
+    <sheet name="11may" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="140">
   <si>
     <t>Acta de reunion:</t>
   </si>
@@ -806,6 +807,34 @@
       <t xml:space="preserve">
 -La formula peso retenido / peso inicial x 100 o (peso retenido / peso inicial) x 100, significan lo mismo para el usuario, esta formula debe obtener el mismo resultado, para el peso retenido parcial.
 -El peso inicial es la masa total que se ensaya, lo que se hace en el proceso es separar el retenido de esta masa total en cada tamiz. generalmente el peso inicial es igual a la sumatoria de los pesos retenidos +/- 0.3%</t>
+    </r>
+  </si>
+  <si>
+    <t>11/05/12</t>
+  </si>
+  <si>
+    <t>Respuesta a la consulta del Grafico de Tendencia de Control Diario y Consolidado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Consulta de Grafico de Tendencia de Control Diario y Consolidado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Los valores a promediar tanto, en la opción promedios de diarios y ponderados, son los de la base de datos, del campo promedio.</t>
     </r>
   </si>
 </sst>
@@ -1018,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1168,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,9 +1222,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1165,33 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1640,101 +1678,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1744,24 +1782,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1770,64 +1808,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1"/>
     <row r="21" spans="1:6" ht="15" customHeight="1"/>
@@ -1887,6 +1925,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B6:F6"/>
@@ -1894,16 +1942,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -1932,101 +1970,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2036,22 +2074,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2060,199 +2098,199 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="80.25" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="62"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
@@ -2305,6 +2343,361 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="147" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+    </row>
+    <row r="19" spans="1:6" ht="69" customHeight="1">
+      <c r="A19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:D20"/>
@@ -2329,361 +2722,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-    </row>
-    <row r="17" spans="1:6" ht="147" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2708,101 +2746,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2812,22 +2850,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2836,101 +2874,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6">
@@ -2983,6 +3021,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A23:C23"/>
@@ -2991,6 +3047,313 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C17"/>
@@ -3015,12 +3378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3033,101 +3396,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3137,22 +3500,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3161,102 +3524,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
+      <c r="A16" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-    </row>
-    <row r="17" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -3268,7 +3631,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -3288,7 +3651,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="40"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -3340,12 +3703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3358,101 +3721,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3462,22 +3825,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3486,102 +3849,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="A16" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -3593,7 +3956,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -3613,7 +3976,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -3683,101 +4046,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3787,22 +4150,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3811,82 +4174,82 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="56.25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6"/>
@@ -3930,13 +4293,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3949,6 +4305,13 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3973,101 +4336,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4077,22 +4440,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4101,64 +4464,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -4195,6 +4558,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4207,11 +4575,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4236,101 +4599,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4340,22 +4703,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4364,64 +4727,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -4445,11 +4808,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -4462,6 +4820,11 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4486,101 +4849,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4590,22 +4953,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4614,161 +4977,161 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="19" t="s">
         <v>67</v>
       </c>
@@ -4815,18 +5178,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -4841,14 +5200,18 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4873,101 +5236,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4977,22 +5340,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5001,81 +5364,81 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -5122,12 +5485,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C16"/>
@@ -5138,12 +5501,12 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5168,101 +5531,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5272,22 +5635,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5296,169 +5659,169 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="149.25" customHeight="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:6" ht="117" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="64" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
@@ -5505,6 +5868,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -5517,30 +5904,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5565,101 +5928,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5669,22 +6032,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5693,159 +6056,159 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="62" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="23" t="s">
         <v>82</v>
       </c>
@@ -5893,6 +6256,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:C21"/>
@@ -5909,24 +6290,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5951,101 +6314,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -6055,22 +6418,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6079,165 +6442,165 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="111" customHeight="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
     </row>
     <row r="19" spans="1:6" ht="81.75" customHeight="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="25"/>
     </row>
     <row r="30" spans="1:6">
@@ -6282,24 +6645,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A16:C17"/>
@@ -6316,6 +6661,24 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="03may" sheetId="14" r:id="rId13"/>
     <sheet name="03may_2" sheetId="15" r:id="rId14"/>
     <sheet name="11may" sheetId="16" r:id="rId15"/>
+    <sheet name="25may" sheetId="17" r:id="rId16"/>
+    <sheet name="1junio" sheetId="18" r:id="rId17"/>
+    <sheet name="1junio_2" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="151">
   <si>
     <t>Acta de reunion:</t>
   </si>
@@ -836,6 +839,41 @@
       <t xml:space="preserve">
 -Los valores a promediar tanto, en la opción promedios de diarios y ponderados, son los de la base de datos, del campo promedio.</t>
     </r>
+  </si>
+  <si>
+    <t>25/05/12</t>
+  </si>
+  <si>
+    <t>Acuerdos</t>
+  </si>
+  <si>
+    <t>Sandra Barboza, John Vara y David Vivar</t>
+  </si>
+  <si>
+    <t>Se acordó que en la semana del 28 de mayo al 05 de junio se estabilizaría la aplicación del SAC. Luego, el 06 de junio se reanudarían las pruebas integrales, determinando qué funcionalidades se pueden probar a partir de esa fecha.
+La fecha de pase a producción pactada es el 18 de junio</t>
+  </si>
+  <si>
+    <t>01/06/12</t>
+  </si>
+  <si>
+    <t>Manuel Landa - José Isuhuaylas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSTI comunicó que se intentó generar un grafico de curva granulométrica que tenga en el eje x superior e inferior, la data solicitada, sin embargo, por temas de incompatibilidad con las librerías en funcionalidades pre-existentes, no se ha podido adaptar el requerimiento. Por lo que se quedó en presentar una propuesta de solución.
+</t>
+  </si>
+  <si>
+    <t>Grafico de curva granulométrica</t>
+  </si>
+  <si>
+    <t>Edwin Pacheco - Fernando Gastañaudi</t>
+  </si>
+  <si>
+    <t>Manuel Landa, Edwin Pacheco, Fernando Gastañaudi</t>
+  </si>
+  <si>
+    <t>CSTI envió la propuesta de solución al problema del grafico granulométrico que no permite mostrar data en el eje x inferior y superior. Sin embargo, los usuarios indicaron que en los graficos propuestos no estaban los valores en escala logarítmica por lo que no se ajustaba a lo solicitado.</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,6 +1215,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1290,6 +1337,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,101 +1728,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1782,24 +1832,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1808,64 +1858,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1"/>
     <row r="21" spans="1:6" ht="15" customHeight="1"/>
@@ -1970,101 +2020,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2074,22 +2124,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2098,199 +2148,199 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="80.25" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="65"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="65"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
@@ -2407,101 +2457,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2511,22 +2561,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2535,113 +2585,113 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="147" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6">
@@ -2732,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2746,101 +2796,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2850,22 +2900,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2874,101 +2924,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6">
@@ -3071,101 +3121,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3175,22 +3225,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3199,101 +3249,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6">
@@ -3396,101 +3446,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3500,22 +3550,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3524,101 +3574,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
@@ -3707,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F17"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3721,101 +3771,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3825,22 +3875,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3849,101 +3899,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6">
@@ -3977,6 +4027,981 @@
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
       <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -4046,101 +5071,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4150,22 +5175,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4174,82 +5199,82 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="56.25" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6"/>
@@ -4336,101 +5361,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4440,22 +5465,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4464,64 +5489,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -4599,101 +5624,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4703,22 +5728,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4727,64 +5752,64 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="6"/>
@@ -4849,101 +5874,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4953,22 +5978,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4977,161 +6002,161 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="19" t="s">
         <v>67</v>
       </c>
@@ -5236,101 +6261,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5340,22 +6365,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5364,81 +6389,81 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -5531,101 +6556,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5635,22 +6660,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5659,169 +6684,169 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="149.25" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="1:6" ht="117" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="67" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
@@ -5928,101 +6953,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -6032,22 +7057,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6056,159 +7081,159 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="23" t="s">
         <v>82</v>
       </c>
@@ -6314,101 +7339,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -6418,22 +7443,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6442,165 +7467,165 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" ht="111" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="81.75" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="65"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="25"/>
     </row>
     <row r="30" spans="1:6">

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" firstSheet="3" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,10 @@
     <sheet name="25may" sheetId="17" r:id="rId16"/>
     <sheet name="1junio" sheetId="18" r:id="rId17"/>
     <sheet name="1junio_2" sheetId="19" r:id="rId18"/>
+    <sheet name="7junio" sheetId="20" r:id="rId19"/>
+    <sheet name="18junio" sheetId="22" r:id="rId20"/>
+    <sheet name="19junio" sheetId="21" r:id="rId21"/>
+    <sheet name="19junio_2" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="168">
   <si>
     <t>Acta de reunion:</t>
   </si>
@@ -874,6 +878,60 @@
   </si>
   <si>
     <t>CSTI envió la propuesta de solución al problema del grafico granulométrico que no permite mostrar data en el eje x inferior y superior. Sin embargo, los usuarios indicaron que en los graficos propuestos no estaban los valores en escala logarítmica por lo que no se ajustaba a lo solicitado.</t>
+  </si>
+  <si>
+    <t>07/06/12</t>
+  </si>
+  <si>
+    <t>Propuesta graficos de granulometría y combinación de agregados</t>
+  </si>
+  <si>
+    <t>Manuel Landa, Edwin Pacheco, Fernando Gastañaudi, Rita Narro</t>
+  </si>
+  <si>
+    <t>Sandra Barboza, Sergio Mondragon, Jose Isuhuaylas</t>
+  </si>
+  <si>
+    <t>CSTI envió la propuesta de solución del grafico granulométrico con escala logaritmica junto con el grafico de combinación de agregados para su confirmación.</t>
+  </si>
+  <si>
+    <t>19/06/12</t>
+  </si>
+  <si>
+    <t>Manuel Landa,Rita Narro</t>
+  </si>
+  <si>
+    <t>Sandra Barboza, Alfredo Romero, Sergio Mondragon, Jose Isuhuaylas</t>
+  </si>
+  <si>
+    <t>_Cuando se cree un lote desde SAC, se deberá enviar a SAP con el siguiente formato: ID_Año_Mes (de creación de lote).
+_Considerar el mismo formato para traslado y eliminación, tomando como referencia la fecha de creación del lote.
+Estos cambios afectan la programación en java y de los RFC.</t>
+  </si>
+  <si>
+    <t>Modificar metodos en java y en RFC</t>
+  </si>
+  <si>
+    <t>19.06.12</t>
+  </si>
+  <si>
+    <t>Propuesta plan de pruebas</t>
+  </si>
+  <si>
+    <t>_Se envió propuesta de plan de pruebas, el cual comprende los siguiente días del 20 al 28 de junio. Y fecha de pase a producción el 04 de julio.</t>
+  </si>
+  <si>
+    <t>20/06/12</t>
+  </si>
+  <si>
+    <t>18/06/12</t>
+  </si>
+  <si>
+    <t>Propuesta plan de pruebas corregida</t>
+  </si>
+  <si>
+    <t>_De acuerdo a lo indicado por el usuario Edwin Pacheco, acerca de programar sólo pruebas de 2 funcionalidades por día, se envió la propuesta de plan de pruebas corregida, la cual comprende las siguiente fechas: del 20 de junio al 09 de julio. 
+_La fecha de pase a producción no ha sido definida pero se gestionará que sea el 11 de julio.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,35 +1282,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,6 +1324,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1277,6 +1335,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1728,101 +1813,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="10"/>
@@ -1832,24 +1917,24 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="3"/>
@@ -1858,56 +1943,56 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="113.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="36.75" customHeight="1">
       <c r="A19" s="65"/>
@@ -1975,16 +2060,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B6:F6"/>
@@ -1992,6 +2067,16 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -2020,101 +2105,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2124,22 +2209,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2148,137 +2233,137 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="80.25" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86" t="s">
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="39" customHeight="1">
@@ -2287,60 +2372,60 @@
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6">
@@ -2393,361 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-    </row>
-    <row r="17" spans="1:6" ht="147" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-    </row>
-    <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-    </row>
-    <row r="19" spans="1:6" ht="69" customHeight="1">
-      <c r="A19" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B20:D20"/>
@@ -2772,6 +2502,361 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="147" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="244.5" customHeight="1">
+      <c r="A18" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6" ht="69" customHeight="1">
+      <c r="A19" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2796,101 +2881,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -2900,22 +2985,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -2924,101 +3009,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6">
@@ -3071,6 +3156,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -3083,20 +3182,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3121,101 +3206,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3225,22 +3310,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3249,101 +3334,101 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="244.5" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6">
@@ -3377,6 +3462,331 @@
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
       <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -3428,12 +3838,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3446,101 +3856,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3550,22 +3960,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3574,102 +3984,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -3681,7 +4091,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -3701,7 +4111,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -3753,7 +4163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -3771,101 +4181,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -3875,22 +4285,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -3899,102 +4309,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="44" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="45"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -4006,7 +4416,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -4026,7 +4436,982 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -4078,12 +5463,302 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6" ht="130.5" customHeight="1">
+      <c r="A21" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="6"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="6"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4096,101 +5771,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4200,22 +5875,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4224,102 +5899,102 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
+      <c r="A16" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -4331,7 +6006,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -4351,7 +6026,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -4403,12 +6078,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4421,101 +6096,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -4525,22 +6200,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -4549,102 +6224,108 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31"/>
@@ -4656,7 +6337,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="6"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="9" t="s">
@@ -4676,7 +6357,332 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="6"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:6" ht="132" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6"/>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="6"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="9" t="s">
@@ -4728,621 +6734,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-    </row>
-    <row r="17" spans="1:6" ht="132" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-    </row>
-    <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="6"/>
-      <c r="D27" s="49"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="22.5">
-      <c r="B29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="6"/>
-      <c r="D32" s="49"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-    </row>
-    <row r="17" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" ht="130.5" customHeight="1">
-      <c r="A21" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="6"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="6"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
@@ -5361,101 +6752,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5465,22 +6856,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5489,54 +6880,54 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="93.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="47.25" customHeight="1">
       <c r="A19" s="65" t="s">
@@ -5583,11 +6974,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -5600,6 +6986,11 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5624,101 +7015,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5728,22 +7119,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -5752,54 +7143,54 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1">
       <c r="A19" s="65" t="s">
@@ -5833,6 +7224,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -5845,11 +7241,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5874,101 +7265,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -5978,22 +7369,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6002,161 +7393,161 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="63" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="19" t="s">
         <v>67</v>
       </c>
@@ -6203,14 +7594,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -6225,18 +7620,14 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6261,101 +7652,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -6365,22 +7756,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6389,81 +7780,81 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -6510,12 +7901,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A16:C16"/>
@@ -6526,12 +7917,12 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6556,101 +7947,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -6660,22 +8051,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -6684,169 +8075,169 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="140.25" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" ht="70.5" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="70" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" ht="149.25" customHeight="1">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="70" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
     <row r="20" spans="1:6" ht="95.25" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="70" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="1:6" ht="117" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="70" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="21" t="s">
         <v>82</v>
       </c>
@@ -6893,30 +8284,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -6929,6 +8296,30 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6953,101 +8344,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -7057,22 +8448,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -7081,103 +8472,103 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="23" t="s">
         <v>89</v>
       </c>
@@ -7188,52 +8579,52 @@
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="23" t="s">
         <v>82</v>
       </c>
@@ -7281,24 +8672,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:C21"/>
@@ -7315,6 +8688,24 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7339,101 +8730,101 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10"/>
@@ -7443,22 +8834,22 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
@@ -7467,125 +8858,125 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6" ht="111" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" ht="81.75" customHeight="1">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="70" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="25" t="s">
         <v>89</v>
       </c>
@@ -7596,36 +8987,36 @@
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="39" customHeight="1">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="25"/>
     </row>
     <row r="30" spans="1:6">
@@ -7670,6 +9061,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A16:C17"/>
@@ -7686,24 +9095,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" firstSheet="13" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10950" windowHeight="3810" tabRatio="865" firstSheet="13" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="04ene" sheetId="2" r:id="rId1"/>
@@ -6296,10 +6296,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7616,7 +7619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7947,7 +7950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8607,10 +8610,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9850,7 +9856,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
@@ -10125,11 +10131,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -10137,12 +10138,17 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
+++ b/trunk/FASE 2/ACTA DE REUNION/Actas de reunion - Lima 2012.xlsx
@@ -11680,7 +11680,7 @@
       <c r="E15" s="106"/>
       <c r="F15" s="106"/>
     </row>
-    <row r="16" spans="1:6" ht="295.5" customHeight="1">
+    <row r="16" spans="1:6" ht="246.75" customHeight="1">
       <c r="A16" s="124" t="s">
         <v>206</v>
       </c>
